--- a/PythonExport.xlsx
+++ b/PythonExport.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G642"/>
+  <dimension ref="A1:G647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15213,10 +15213,125 @@
         <v>277.010009765625</v>
       </c>
       <c r="F642" t="n">
-        <v>32905700</v>
+        <v>32935600</v>
       </c>
       <c r="G642" t="n">
         <v>277.010009765625</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B643" t="n">
+        <v>280.9700012207031</v>
+      </c>
+      <c r="C643" t="n">
+        <v>276.260009765625</v>
+      </c>
+      <c r="D643" t="n">
+        <v>278.0299987792969</v>
+      </c>
+      <c r="E643" t="n">
+        <v>279.3200073242188</v>
+      </c>
+      <c r="F643" t="n">
+        <v>26247500</v>
+      </c>
+      <c r="G643" t="n">
+        <v>279.3200073242188</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B644" t="n">
+        <v>281.5199890136719</v>
+      </c>
+      <c r="C644" t="n">
+        <v>277.2900085449219</v>
+      </c>
+      <c r="D644" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="E644" t="n">
+        <v>281.3999938964844</v>
+      </c>
+      <c r="F644" t="n">
+        <v>24364300</v>
+      </c>
+      <c r="G644" t="n">
+        <v>281.3999938964844</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B645" t="n">
+        <v>286.4200134277344</v>
+      </c>
+      <c r="C645" t="n">
+        <v>283.4200134277344</v>
+      </c>
+      <c r="D645" t="n">
+        <v>283.8399963378906</v>
+      </c>
+      <c r="E645" t="n">
+        <v>286.1400146484375</v>
+      </c>
+      <c r="F645" t="n">
+        <v>23384100</v>
+      </c>
+      <c r="G645" t="n">
+        <v>286.1400146484375</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="B646" t="n">
+        <v>289.989990234375</v>
+      </c>
+      <c r="C646" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="D646" t="n">
+        <v>287.3699951171875</v>
+      </c>
+      <c r="E646" t="n">
+        <v>289.6700134277344</v>
+      </c>
+      <c r="F646" t="n">
+        <v>22753500</v>
+      </c>
+      <c r="G646" t="n">
+        <v>289.6700134277344</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B647" t="n">
+        <v>289.6199951171875</v>
+      </c>
+      <c r="C647" t="n">
+        <v>286.6419982910156</v>
+      </c>
+      <c r="D647" t="n">
+        <v>289</v>
+      </c>
+      <c r="E647" t="n">
+        <v>289.3299865722656</v>
+      </c>
+      <c r="F647" t="n">
+        <v>15804017</v>
+      </c>
+      <c r="G647" t="n">
+        <v>289.3299865722656</v>
       </c>
     </row>
   </sheetData>
